--- a/data/costdetails_correct.xlsx
+++ b/data/costdetails_correct.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunaynaagarwal/Documents/GitHub/capstone project/urbanforest_CBA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunaynaagarwal/Documents/GitHub/capstone project/urbanforest_CBA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9F1089-D825-524F-9FAD-9926040BB3B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A484143-6671-2840-8CBB-B71257D020A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14100" xr2:uid="{A34BEEE3-E12E-974B-B0EA-2C8ED8A10113}"/>
   </bookViews>
@@ -35,34 +35,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>cost_description</t>
-  </si>
-  <si>
-    <t>first_year_$</t>
-  </si>
-  <si>
-    <t>yearly_cost_$</t>
-  </si>
-  <si>
-    <t>installtion cost</t>
-  </si>
-  <si>
-    <t>irrigation cost</t>
-  </si>
-  <si>
-    <t>pruning_maintenance</t>
-  </si>
-  <si>
-    <t>remova_disposal</t>
-  </si>
-  <si>
-    <t>administration_cleaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pestcontrol_fertilization </t>
-  </si>
-  <si>
-    <t>liability_legal cost</t>
+    <t>Cost_Breakdown</t>
+  </si>
+  <si>
+    <t>Cost_First Year</t>
+  </si>
+  <si>
+    <t>Cost_Yearly</t>
+  </si>
+  <si>
+    <t>Correct installtion cost</t>
+  </si>
+  <si>
+    <t>Irrigation Cost</t>
+  </si>
+  <si>
+    <t>Pruning and Maintenance</t>
+  </si>
+  <si>
+    <t>Removal and Disposal</t>
+  </si>
+  <si>
+    <t>Administration and Cleaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pest-control and Fertilization </t>
+  </si>
+  <si>
+    <t>Liability and Legal cost</t>
   </si>
 </sst>
 </file>
@@ -417,12 +417,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
   </cols>
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-14000</v>
+        <v>14000</v>
       </c>
       <c r="C2">
         <v>0</v>
